--- a/Code/Data.xlsx
+++ b/Code/Data.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -424,13 +424,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="11" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="10.109375" customWidth="1" min="2" max="2"/>
@@ -570,6 +570,50 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">05/10/2025 </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15:44:24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MH I2 DE 1433</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">05/10/2025 </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15:53:32</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AP CM JAGAN</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
